--- a/biology/Biochimie/Prostaglandine_D2/Prostaglandine_D2.xlsx
+++ b/biology/Biochimie/Prostaglandine_D2/Prostaglandine_D2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La prostaglandine D2 (PGD2) est une prostaglandine qui se lie au récepteur PTGDR ainsi qu'au récepteur PTGDR2 (également connu sous les noms CRTH2 et GPR44)[2],[3]. C'est la principale prostaglandine produite par les mastocytes dans le recrutement des lymphocytes T auxiliaires, des éosinophiles et des basophiles. Le cerveau et les mastocytes sont les seuls lieux où l'on peut trouver de grandes quantités de PGD2 chez les mammifères. Cette prostaglandine est déterminante dans le développement de maladies allergiques telles que l'asthme.
-Un article publié en 2012 indique une relation causale entre des taux localement élevés de prostaglandine D2 et la chute des cheveux[4]. L'étude correspondante a montré que la PGD2 bloque la croissance du cheveu, que les souris modifiées génétiquement pour produire davantage de PGD2 voient la croissance de leurs poils ralentie et que le taux de PGD2 est sensiblement plus élevé dans un cuir chevelu chauve que dans un cuir chevelu normal ; l'article suggère que l'un des récepteurs couplés aux protéines G, le PTGDR2 auquel se lie PGD2, pourrait être une cible thérapeutique dans le traitement de l'alopécie androgénétique[5].
+La prostaglandine D2 (PGD2) est une prostaglandine qui se lie au récepteur PTGDR ainsi qu'au récepteur PTGDR2 (également connu sous les noms CRTH2 et GPR44),. C'est la principale prostaglandine produite par les mastocytes dans le recrutement des lymphocytes T auxiliaires, des éosinophiles et des basophiles. Le cerveau et les mastocytes sont les seuls lieux où l'on peut trouver de grandes quantités de PGD2 chez les mammifères. Cette prostaglandine est déterminante dans le développement de maladies allergiques telles que l'asthme.
+Un article publié en 2012 indique une relation causale entre des taux localement élevés de prostaglandine D2 et la chute des cheveux. L'étude correspondante a montré que la PGD2 bloque la croissance du cheveu, que les souris modifiées génétiquement pour produire davantage de PGD2 voient la croissance de leurs poils ralentie et que le taux de PGD2 est sensiblement plus élevé dans un cuir chevelu chauve que dans un cuir chevelu normal ; l'article suggère que l'un des récepteurs couplés aux protéines G, le PTGDR2 auquel se lie PGD2, pourrait être une cible thérapeutique dans le traitement de l'alopécie androgénétique.
 </t>
         </is>
       </c>
